--- a/biology/Zoologie/Entelegynae/Entelegynae.xlsx
+++ b/biology/Zoologie/Entelegynae/Entelegynae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Entelegynae sont un clade d'araignées aranéomorphes.
 C'est le groupe frère des Haplogynae dans les Araneoclada.
@@ -512,9 +524,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les schémas plus anciens, les Araneomorphae étaient divisés en deux lignées, les Hypochilae (contenant uniquement la famille des Hypochilidae) et les Neocribellatae. Les Neocribellatae étaient à leur tour divisés en Austrochiloidea et en deux séries Haplogynae et Entelogynae, chacune contenant plusieurs super-familles. Des études de phylogénétique moléculaire ont montré que les Haplogyne en particulier ne sont pas un groupe monophylétique. Une étude de 2020 a suggéré que les relations entre les principaux groupes étaient comme indiqué dans le cladogramme suivant[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les schémas plus anciens, les Araneomorphae étaient divisés en deux lignées, les Hypochilae (contenant uniquement la famille des Hypochilidae) et les Neocribellatae. Les Neocribellatae étaient à leur tour divisés en Austrochiloidea et en deux séries Haplogynae et Entelogynae, chacune contenant plusieurs super-familles. Des études de phylogénétique moléculaire ont montré que les Haplogyne en particulier ne sont pas un groupe monophylétique. Une étude de 2020 a suggéré que les relations entre les principaux groupes étaient comme indiqué dans le cladogramme suivant.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The World Spider Catalog 17.5[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The World Spider Catalog 17.5 :
 Palpimanoidea Thorell, 1870
 †Seppo Selden &amp; Dunlop, 2014
 †Sinaranea Selden, Huang &amp; Ren, 2008
@@ -683,7 +699,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1893 : Histoire naturelle des Araignées. Roret, Paris, vol. 1, p. 255–488.</t>
         </is>
